--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Requirements</t>
   </si>
@@ -53,36 +53,12 @@
     <t>Check the encoding and namespace of the generated file</t>
   </si>
   <si>
-    <t xml:space="preserve">Check that the generated file does not contain the definition of the SR interface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that the generated file does not contain the definition of the CS interface </t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Check that the generated file contains the definition of the SR interface and the log contains the SR interface in a note</t>
-  </si>
-  <si>
-    <t>Check that the generated file contains the definition of the CS interface and the log contains the CS interface in a note</t>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the SR interface in an error</t>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the CS interface in an error</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>not done</t>
   </si>
   <si>
-    <t>Check if the output file contains the source file names given in the specified path</t>
-  </si>
-  <si>
     <t>see TRS.ALADDIN.GEN.004 (below)</t>
   </si>
   <si>
@@ -98,9 +74,6 @@
     <t>TRS.ABU.INOUT.100</t>
   </si>
   <si>
-    <t>TRS.ABU.GEN.0001</t>
-  </si>
-  <si>
     <t>TRS.ABU.GEN.001</t>
   </si>
   <si>
@@ -113,7 +86,40 @@
     <t>TRS.ABU.GEN.004</t>
   </si>
   <si>
-    <t>Check that the connector is created</t>
+    <t>TRS.ABU.FUNC.0001</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0002</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0003</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0004</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0005</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0006</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0007</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0008</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0009</t>
+  </si>
+  <si>
+    <t>Check the structure of an AssemblyConnector element</t>
+  </si>
+  <si>
+    <t>Check that a warning is present in the log file for each port without connector</t>
+  </si>
+  <si>
+    <t>Check that an error is present in the log file for each case when there are multiple Pports or PRPorts referencing the same interface.</t>
   </si>
   <si>
     <r>
@@ -135,7 +141,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Feed to the too one file containing the RPort, and one file containing the PPort of the same interface</t>
+      <t>: feed to the tool an input file which contains two Pports referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
     </r>
   </si>
   <si>
@@ -158,8 +164,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Feed to the tool one file containg the Rport and Pport of the same interface, and another file containing the Pport, also of the same interface</t>
-    </r>
+      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the connector is not generated in the output file
+- check that the error is present in the log file</t>
   </si>
   <si>
     <r>
@@ -181,7 +191,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Feed to the tool one file containing the Rport, and another file containing the Pport and the Rport of the same interface</t>
+      <t>: feed to the tool an input file which contains one Pport and one PRPort referencing the same interface, and one Rport referencing the same interface referenced by the Pport and PRPort.</t>
     </r>
   </si>
   <si>
@@ -204,8 +214,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: feed to the tool on Rport and two Pport, one of the Pport referencing &lt;AswcDiagForDcm&gt;, while the other one referencing another ASWC </t>
-    </r>
+      <t>: feed to the tool an input file which contains one Pport referencing an interface A1, one PRPort which references an interface A2, and one Rport which references one interface A3</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that no connector is present in the output file
+- check that a warning is present for each of the given ports in the log file</t>
   </si>
   <si>
     <r>
@@ -217,6 +231,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains one Pport referencing an interface A1, one PRPort which references an interface A2, and one Rport which references the same interface as the Pport</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that a connector is created in the output file
+- check that a warning is present for the PRPort in the log file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 1</t>
     </r>
     <r>
@@ -227,17 +268,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool on Rport and one Pport referencing &lt;AswcDiagForDcm&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the error</t>
+      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check in the output file that the connector is created and the structure is correct</t>
+  </si>
+  <si>
+    <t>- check that the metadata and root of the file are correct</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Rport and the Pport who is referencing the ASWC_Data</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Rport and the Pport who is referencing the &lt;AswcDiagForDcm&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -248,21 +297,51 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same SR interface, and an Idico file which contain the definition of that interface</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;AswcDiagForDcm&gt;, while the other one is referencing another ASWC</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the tool makes the differnce when deaing with Pports from &lt;AswcDiagForDcm&gt;</t>
+  </si>
+  <si>
+    <t>- check that two connectors are created, one between the Pport of CS_Name1 and Rport_Name1 of NV_Name1, and the other between the Rport of CS_Name1 and the Pport of NV_Name1</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when having NV-DATA-INTERFACE and SENDER-RECEIVER-INTERFACE ports</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -273,128 +352,207 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same CS interface, and an Idico file which contain the definition of that interface</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;AswcDiagForDcm&gt;</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a SR interface) and the Idico file which contains that interface</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing the same interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Pport and Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when having SENDER-RECEIVER-INTERFACE ports without NV-DATA-INTERFACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports with the same name and referencing the same interface </t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when Pport and Rport references the same interface</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 4</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a CS interface) and the Idico file which contains that interface</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two Rports with the same short-name as the Pport and  referencing the same interface as the Pport</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a SR interface) and an Idico file which doesn’t have the interface definition</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and  one Rport with a different short-name as of Pport, but referencing the same interface as the PPort</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that two connectors are created, one for each Rport</t>
+  </si>
+  <si>
+    <t>- check that one connector is created, between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool will not generate an existing connector</t>
+  </si>
+  <si>
+    <t>- check that no connector is created between the Rport and the Pport</t>
+  </si>
+  <si>
+    <t>Check that for unique Pport and Rport, only one connector will be created</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 6</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a CS interface) and an Idico file which doesn’t have the interface definition</t>
-    </r>
-  </si>
-  <si>
-    <t>After the connectors file is created, check if these parameters are exactly as in the requirement (maybe literal check?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter the Pport referencing &lt;AswcDiagForDcm&gt;  </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that only one connector is created between the given ports</t>
+  </si>
+  <si>
+    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>Test 2: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
+  </si>
+  <si>
+    <t>- check that one connector is created between the PRPort and the Rport</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,24 +569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -484,24 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -590,43 +712,69 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -635,14 +783,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,68 +797,190 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1030,9 +1297,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1041,256 +1308,444 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>16</v>
+      <c r="D21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14"/>
+  <autoFilter ref="A1:E19"/>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
       <formula1>"done, not done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21">
+      <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rconstantin\PycharmProjects\ConnectorsAsembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Requirements</t>
   </si>
@@ -53,36 +53,12 @@
     <t>Check the encoding and namespace of the generated file</t>
   </si>
   <si>
-    <t xml:space="preserve">Check that the generated file does not contain the definition of the SR interface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that the generated file does not contain the definition of the CS interface </t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Check that the generated file contains the definition of the SR interface and the log contains the SR interface in a note</t>
-  </si>
-  <si>
-    <t>Check that the generated file contains the definition of the CS interface and the log contains the CS interface in a note</t>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the SR interface in an error</t>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the CS interface in an error</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>not done</t>
   </si>
   <si>
-    <t>Check if the output file contains the source file names given in the specified path</t>
-  </si>
-  <si>
     <t>see TRS.ALADDIN.GEN.004 (below)</t>
   </si>
   <si>
@@ -98,9 +74,6 @@
     <t>TRS.ABU.INOUT.100</t>
   </si>
   <si>
-    <t>TRS.ABU.GEN.0001</t>
-  </si>
-  <si>
     <t>TRS.ABU.GEN.001</t>
   </si>
   <si>
@@ -113,7 +86,40 @@
     <t>TRS.ABU.GEN.004</t>
   </si>
   <si>
-    <t>Check that the connector is created</t>
+    <t>TRS.ABU.FUNC.0001</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0002</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0003</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0004</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0005</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0006</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0007</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0008</t>
+  </si>
+  <si>
+    <t>TRS.ABU.FUNC.0009</t>
+  </si>
+  <si>
+    <t>Check the structure of an AssemblyConnector element</t>
+  </si>
+  <si>
+    <t>Check that a warning is present in the log file for each port without connector</t>
+  </si>
+  <si>
+    <t>Check that an error is present in the log file for each case when there are multiple Pports or PRPorts referencing the same interface.</t>
   </si>
   <si>
     <r>
@@ -135,8 +141,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Feed to the too one file containing the RPort, and one file containing the PPort of the same interface</t>
-    </r>
+      <t>: feed to the tool an input file which contains two Pports referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the connector is not generated in the output file
+- check that the error is present in the log file</t>
   </si>
   <si>
     <r>
@@ -148,6 +158,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains one Pport and one PRPort referencing the same interface, and one Rport referencing the same interface referenced by the Pport and PRPort.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains one Pport referencing an interface A1, one PRPort which references an interface A2, and one Rport which references one interface A3</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that no connector is present in the output file
+- check that a warning is present for each of the given ports in the log file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 2</t>
     </r>
     <r>
@@ -158,8 +218,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Feed to the tool one file containg the Rport and Pport of the same interface, and another file containing the Pport, also of the same interface</t>
-    </r>
+      <t>: feed to the tool an input file which contains one Pport referencing an interface A1, one PRPort which references an interface A2, and one Rport which references the same interface as the Pport</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that a connector is created in the output file
+- check that a warning is present for the PRPort in the log file</t>
   </si>
   <si>
     <r>
@@ -171,18 +235,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Test 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Feed to the tool one file containing the Rport, and another file containing the Pport and the Rport of the same interface</t>
-    </r>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check in the output file that the connector is created and the structure is correct</t>
+  </si>
+  <si>
+    <t>- check that the metadata and root of the file are correct</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Rport and the Pport who is referencing the ASWC_Data</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Rport and the Pport who is referencing the &lt;AswcDiagForDcm&gt;</t>
   </si>
   <si>
     <r>
@@ -204,8 +280,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: feed to the tool on Rport and two Pport, one of the Pport referencing &lt;AswcDiagForDcm&gt;, while the other one referencing another ASWC </t>
-    </r>
+      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;AswcDiagForDcm&gt;, while the other one is referencing another ASWC</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the tool makes the differnce when deaing with Pports from &lt;AswcDiagForDcm&gt;</t>
+  </si>
+  <si>
+    <t>- check that two connectors are created, one between the Pport of CS_Name1 and Rport_Name1 of NV_Name1, and the other between the Rport of CS_Name1 and the Pport of NV_Name1</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when having NV-DATA-INTERFACE and SENDER-RECEIVER-INTERFACE ports</t>
   </si>
   <si>
     <r>
@@ -217,6 +302,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;AswcDiagForDcm&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the connector is created between the Pport and Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when having SENDER-RECEIVER-INTERFACE ports without NV-DATA-INTERFACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports with the same name and referencing the same interface </t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when Pport and Rport references the same interface</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 1</t>
     </r>
     <r>
@@ -227,17 +347,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool on Rport and one Pport referencing &lt;AswcDiagForDcm&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Check that the file is not generated and the log file contains the error</t>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two Rports with the same short-name as the Pport and  referencing the same interface as the Pport</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -248,21 +364,101 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same SR interface, and an Idico file which contain the definition of that interface</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and  one Rport with a different short-name as of Pport, but referencing the same interface as the PPort</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that two connectors are created, one for each Rport</t>
+  </si>
+  <si>
+    <t>- check that one connector is created, between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool will not generate an existing connector</t>
+  </si>
+  <si>
+    <t>- check that no connector is created between the Rport and the Pport</t>
+  </si>
+  <si>
+    <t>Check that for unique Pport and Rport, only one connector will be created</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that only one connector is created between the given ports</t>
+  </si>
+  <si>
+    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that one connector is created between the PRPort and the Rport</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -273,128 +469,116 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which has a PPort and a RPort referencing the same CS interface, and an Idico file which contain the definition of that interface</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a SR interface) and the Idico file which contains that interface</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>-check that the output file does not contains multiple times the same connector</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 4</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a CS interface) and the Idico file which contains that interface</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing the same interface of type Sender-Receiver</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a SR interface) and an Idico file which doesn’t have the interface definition</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface SR_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 6</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains only the RPort without the PPort (which reference a CS interface) and an Idico file which doesn’t have the interface definition</t>
-    </r>
-  </si>
-  <si>
-    <t>After the connectors file is created, check if these parameters are exactly as in the requirement (maybe literal check?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter the Pport referencing &lt;AswcDiagForDcm&gt;  </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the PRPports.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,41 +594,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,24 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -568,17 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -591,42 +733,26 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -635,14 +761,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,68 +775,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -731,6 +883,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1029,268 +1191,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13" t="s">
+      <c r="B16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>16</v>
+      <c r="D22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14"/>
+  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"done, not done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rconstantin\PycharmProjects\ConnectorsAsembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Requirements</t>
   </si>
@@ -41,15 +41,9 @@
     <t>Test(s)</t>
   </si>
   <si>
-    <t>How to do this? Check the log file? Maybe it is possible to check of phrase “&lt;name_file&gt; is”, which appears when a given arxml file is parsed and checked</t>
-  </si>
-  <si>
     <t>Check if the input and output directory are configurable</t>
   </si>
   <si>
-    <t>Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
-  </si>
-  <si>
     <t>Check the encoding and namespace of the generated file</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>not done</t>
   </si>
   <si>
-    <t>see TRS.ALADDIN.GEN.004 (below)</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -142,6 +133,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>: feed to the tool an input file which contains two Pports referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
     </r>
   </si>
   <si>
@@ -302,6 +316,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 2</t>
     </r>
     <r>
@@ -316,6 +353,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing the same interface</t>
+    </r>
+  </si>
+  <si>
     <t>- check that the connector is created between the Pport and Rport</t>
   </si>
   <si>
@@ -412,6 +472,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
     <t>- check that only one connector is created between the given ports</t>
   </si>
   <si>
@@ -441,6 +524,9 @@
     </r>
   </si>
   <si>
+    <t>Test 2: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
+  </si>
+  <si>
     <t>- check that one connector is created between the PRPort and the Rport</t>
   </si>
   <si>
@@ -475,8 +561,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
-    </r>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- check that two connectors are created, one between the Pport o and Rport of NV_Name2, and the other between the Rport and the Pport of CS_Name1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
   </si>
   <si>
     <r>
@@ -488,21 +580,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>-check that the output file does not contains multiple times the same connector</t>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool several .arxml  files as an input argument</t>
+    </r>
   </si>
   <si>
     <r>
@@ -524,60 +613,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing the same interface of type Sender-Receiver</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing an interface SR_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the PRPports.</t>
-    </r>
+      <t>: Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the output folder is present</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,27 +644,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -721,7 +758,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -761,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,16 +871,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -803,59 +914,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -873,6 +978,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1191,438 +1316,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
+      <c r="A2" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
+      <c r="B18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>67</v>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>67</v>
+      <c r="B21" s="28"/>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>67</v>
+      <c r="A22" s="31"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E20"/>
   <mergeCells count="10">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
@@ -1632,32 +1761,32 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rconstantin\PycharmProjects\ConnectorsAsembly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Requirements</t>
   </si>
@@ -41,27 +36,15 @@
     <t>Test(s)</t>
   </si>
   <si>
-    <t>How to do this? Check the log file? Maybe it is possible to check of phrase “&lt;name_file&gt; is”, which appears when a given arxml file is parsed and checked</t>
-  </si>
-  <si>
     <t>Check if the input and output directory are configurable</t>
   </si>
   <si>
-    <t>Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
-  </si>
-  <si>
     <t>Check the encoding and namespace of the generated file</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
-    <t>not done</t>
-  </si>
-  <si>
-    <t>see TRS.ALADDIN.GEN.004 (below)</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -142,6 +125,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>: feed to the tool an input file which contains two Pports referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the Pports.</t>
     </r>
   </si>
   <si>
@@ -302,6 +308,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 2</t>
     </r>
     <r>
@@ -316,6 +345,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing the same interface</t>
+    </r>
+  </si>
+  <si>
     <t>- check that the connector is created between the Pport and Rport</t>
   </si>
   <si>
@@ -412,6 +464,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
     <t>- check that only one connector is created between the given ports</t>
   </si>
   <si>
@@ -450,9 +525,6 @@
     <t>passed</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -475,110 +547,122 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- check that two connectors are created, one between the Pport o and Rport of NV_Name2, and the other between the Rport and the Pport of CS_Name1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool several .arxml  files as an input argument</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the output folder is present</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>-check that the output file does not contains multiple times the same connector</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>-check that the output file does not contains multiple times the same connector</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing the same interface of type Sender-Receiver</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing an interface SR_Name1, and one Pport and one Rport referencing an interface NV_Name1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool an input file which contains two PRPorts referencing the same interface, and one Rport referencing the same interface referenced by the PRPports.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,27 +679,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -721,7 +793,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -761,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,16 +906,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -803,79 +949,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -972,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,7 +1130,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,45 +1307,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>64</v>
@@ -1231,433 +1354,455 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
+      <c r="A13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60">
+      <c r="A20" s="32"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="D21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="E22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="32"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>67</v>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="10">
+  <autoFilter ref="A1:E21"/>
+  <mergeCells count="12">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -345,6 +350,18 @@
     </r>
   </si>
   <si>
+    <t>- check that the connector is created between the Pport and Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when having SENDER-RECEIVER-INTERFACE ports without NV-DATA-INTERFACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports with the same name and referencing the same interface </t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when Pport and Rport references the same interface</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -364,20 +381,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing the same interface</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the connector is created between the Pport and Rport</t>
-  </si>
-  <si>
-    <t>Check that the tool generate the correct connectors when having SENDER-RECEIVER-INTERFACE ports without NV-DATA-INTERFACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports with the same name and referencing the same interface </t>
-  </si>
-  <si>
-    <t>Check that the tool generate the correct connectors when Pport and Rport references the same interface</t>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two Rports with the same short-name as the Pport and  referencing the same interface as the Pport</t>
+    </r>
   </si>
   <si>
     <r>
@@ -399,8 +404,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two Rports with the same short-name as the Pport and  referencing the same interface as the Pport</t>
-    </r>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and  one Rport with a different short-name as of Pport, but referencing the same interface as the PPort</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that two connectors are created, one for each Rport</t>
+  </si>
+  <si>
+    <t>- check that one connector is created, between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool will not generate an existing connector</t>
+  </si>
+  <si>
+    <t>- check that no connector is created between the Rport and the Pport</t>
+  </si>
+  <si>
+    <t>Check that for unique Pport and Rport, only one connector will be created</t>
   </si>
   <si>
     <r>
@@ -422,23 +442,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and  one Rport with a different short-name as of Pport, but referencing the same interface as the PPort</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that two connectors are created, one for each Rport</t>
-  </si>
-  <si>
-    <t>- check that one connector is created, between the Pport and the Rport</t>
-  </si>
-  <si>
-    <t>Check that the tool will not generate an existing connector</t>
-  </si>
-  <si>
-    <t>- check that no connector is created between the Rport and the Pport</t>
-  </si>
-  <si>
-    <t>Check that for unique Pport and Rport, only one connector will be created</t>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
+    </r>
   </si>
   <si>
     <r>
@@ -460,8 +465,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
-    </r>
+      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that only one connector is created between the given ports</t>
+  </si>
+  <si>
+    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
   </si>
   <si>
     <r>
@@ -483,14 +494,121 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that one connector is created between the PRPort and the Rport</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- check that two connectors are created, one between the Pport o and Rport of NV_Name2, and the other between the Rport and the Pport of CS_Name1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool several .arxml  files as an input argument</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the output folder is present</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
     </r>
   </si>
   <si>
-    <t>- check that only one connector is created between the given ports</t>
-  </si>
-  <si>
-    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
+    <t>-check that the output file does not contains multiple times the same connector</t>
   </si>
   <si>
     <r>
@@ -502,6 +620,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 1</t>
     </r>
     <r>
@@ -512,157 +653,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that one connector is created between the PRPort and the Rport</t>
-  </si>
-  <si>
-    <t>implemented</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport and one Rport referencing an interface CS_Name1, and one Pport and one Rport referencing an interface NV_Name2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">- check that two connectors are created, one between the Pport o and Rport of NV_Name2, and the other between the Rport and the Pport of CS_Name1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: provide to the tool several .arxml  files as an input argument</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Call tool with a given set of input&amp;output directories and check if the output directory is created</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the output folder is present</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>-check that the output file does not contains multiple times the same connector</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
-    </r>
+      <t>: feed to the tool one Pport and one Rport referencing the same  SR interface</t>
+    </r>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,7 +692,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -696,37 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -815,29 +789,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -846,38 +807,154 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -886,59 +963,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -946,52 +996,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1307,461 +1399,461 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75">
-      <c r="A13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
-      <c r="A15" s="27" t="s">
+      <c r="E14" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="28"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="5" t="s">
+      <c r="E15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A18" s="15" t="s">
+      <c r="E17" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="30" t="s">
+      <c r="E18" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="32"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="5" t="s">
+      <c r="E19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="30" t="s">
+      <c r="E20" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="7" t="s">
+      <c r="E21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="32"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="5" t="s">
+      <c r="E22" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>66</v>
+      <c r="E23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
+    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Version" sheetId="3" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$21</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>Requirements</t>
   </si>
@@ -54,51 +55,6 @@
   </si>
   <si>
     <t>covered by the tests below</t>
-  </si>
-  <si>
-    <t>TRS.ABU.INOUT.001</t>
-  </si>
-  <si>
-    <t>TRS.ABU.INOUT.100</t>
-  </si>
-  <si>
-    <t>TRS.ABU.GEN.001</t>
-  </si>
-  <si>
-    <t>TRS.ABU.GEN.002</t>
-  </si>
-  <si>
-    <t>TRS.ABU.GEN.003</t>
-  </si>
-  <si>
-    <t>TRS.ABU.GEN.004</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0001</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0002</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0003</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0004</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0005</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0006</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0007</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0008</t>
-  </si>
-  <si>
-    <t>TRS.ABU.FUNC.0009</t>
   </si>
   <si>
     <t>Check the structure of an AssemblyConnector element</t>
@@ -661,6 +617,64 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>- initial creation 
+- created tests for ConnectorDescriptor tool V1 (delivery on 16.03.2018)</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.INOUT.001</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.INOUT.100</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0001</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0002</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0003</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0004</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0005</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0006</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0007</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0008</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.0009</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.GEN.001</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.GEN.002</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.GEN.003</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.GEN.004</t>
   </si>
 </sst>
 </file>
@@ -692,7 +706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -959,11 +973,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,9 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -991,13 +1060,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1005,51 +1068,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1071,12 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1085,6 +1103,58 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,453 +1477,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>76</v>
+      <c r="E1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>63</v>
+      <c r="E23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -1111,8 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,18 +1118,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1141,13 +1127,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1148,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,10 +1490,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="45" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1571,6 +1571,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1578,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1587,7 +1588,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
@@ -1596,7 +1597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -1616,10 +1617,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1636,10 +1637,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1654,10 +1655,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1674,10 +1675,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1694,8 +1695,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1710,10 +1711,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1730,8 +1731,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
@@ -1746,10 +1747,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1766,10 +1767,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1786,10 +1787,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1806,10 +1807,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1826,10 +1827,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1846,8 +1847,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10" t="s">
         <v>49</v>
       </c>
@@ -1862,10 +1863,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1882,8 +1883,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1898,10 +1899,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1918,10 +1919,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1938,10 +1939,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1958,8 +1959,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1974,10 +1975,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1994,8 +1995,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
@@ -2010,8 +2011,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="14" t="s">
         <v>15</v>
       </c>

--- a/ABU test plan.xlsx
+++ b/ABU test plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
+    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Requirements</t>
   </si>
@@ -675,6 +675,52 @@
   </si>
   <si>
     <t>TRS.CONNECTOR.GEN.004</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>4/5/2018</t>
+  </si>
+  <si>
+    <t>3/2/2018</t>
+  </si>
+  <si>
+    <t>-added new test-cases (to cover MSI ports connection)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Check the tool behavior in case of arxml not well formed</t>
+  </si>
+  <si>
+    <t>Provide to the tool one ".arxml" file that is not correct (tags not properly closed, multiple roots, etc)</t>
+  </si>
+  <si>
+    <t>- check that the output arxml file is not produced
+- check the log for the corresponding error</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Check the tool behavior in case of dico not well formed</t>
+  </si>
+  <si>
+    <t>Provide to the tool one ".dico" file that is not correct (tags not properly closed, multiple roots, etc)</t>
   </si>
 </sst>
 </file>
@@ -706,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1031,11 +1077,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1130,6 +1250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1154,13 +1276,238 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1477,97 +1824,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,13 +1977,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,10 +2075,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1695,8 +2095,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1711,10 +2111,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1731,8 +2131,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
@@ -1827,10 +2227,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1847,8 +2247,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="10" t="s">
         <v>49</v>
       </c>
@@ -1863,10 +2263,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1883,8 +2283,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1939,10 +2339,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1959,8 +2359,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1975,10 +2375,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1995,8 +2395,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
@@ -2011,8 +2411,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
@@ -2024,6 +2424,46 @@
       </c>
       <c r="F23" s="16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2042,30 +2482,75 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="E1:E23 E26:E1048576">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"not done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"not done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E25">
       <formula1>"done, not done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23">
       <formula1>"YES, NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F25">
+      <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
